--- a/src/main/webapp/excel/需求计划模板.xlsx
+++ b/src/main/webapp/excel/需求计划模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>需求计划示例</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>总计</t>
   </si>
   <si>
     <t>一</t>
@@ -185,13 +182,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -241,6 +238,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -250,15 +329,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +352,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -279,104 +374,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -393,6 +390,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,13 +468,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,157 +522,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,41 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,26 +652,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,12 +673,62 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -740,10 +737,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,137 +749,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,7 +895,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,18 +904,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,7 +949,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1296,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1359,305 +1353,285 @@
       <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="59" customHeight="1" spans="1:14">
-      <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
+    <row r="3" ht="40" customHeight="1" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10">
+        <f>I4+I8</f>
         <v>154</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="7"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="4"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
-    <row r="4" ht="40" customHeight="1" spans="1:14">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" ht="60" customHeight="1" spans="1:14">
+      <c r="A4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10">
-        <f>I5+I9</f>
-        <v>154</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16">
+        <v>75</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" ht="60" customHeight="1" spans="1:14">
-      <c r="A5" s="12" t="s">
+    <row r="5" ht="66" customHeight="1" spans="1:14">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="15">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17">
+        <v>50000</v>
+      </c>
+      <c r="I5" s="17">
+        <v>50</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="33.75" spans="1:14">
+      <c r="A6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
+      <c r="H6" s="17">
+        <v>50000</v>
+      </c>
+      <c r="I6" s="17">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" ht="34" customHeight="1" spans="1:14">
+      <c r="A7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="15">
+        <v>3</v>
+      </c>
+      <c r="H7" s="17">
+        <v>50000</v>
+      </c>
+      <c r="I7" s="17">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" ht="63" customHeight="1" spans="1:14">
+      <c r="A8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17">
-        <v>75</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="C8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16">
+        <f>SUM(I9:I10)</f>
+        <v>79</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="8"/>
     </row>
-    <row r="6" ht="66" customHeight="1" spans="1:14">
-      <c r="A6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="16">
-        <v>10</v>
-      </c>
-      <c r="H6" s="18">
-        <v>50000</v>
-      </c>
-      <c r="I6" s="18">
-        <v>50</v>
-      </c>
-      <c r="J6" s="12" t="s">
+    <row r="9" ht="70" customHeight="1" spans="1:14">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="15">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>340000</v>
+      </c>
+      <c r="I9" s="23">
+        <v>34</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="15" t="s">
+      <c r="M9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="N9" s="8"/>
     </row>
-    <row r="7" ht="33.75" spans="1:14">
-      <c r="A7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="16">
+    <row r="10" ht="42" customHeight="1" spans="1:14">
+      <c r="A10" s="14">
         <v>2</v>
       </c>
-      <c r="H7" s="18">
-        <v>50000</v>
-      </c>
-      <c r="I7" s="18">
-        <v>10</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="15">
+        <v>3</v>
+      </c>
+      <c r="H10" s="16">
+        <v>450000</v>
+      </c>
+      <c r="I10" s="23">
+        <v>45</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="15" t="s">
+      <c r="M10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="11"/>
-    </row>
-    <row r="8" ht="34" customHeight="1" spans="1:14">
-      <c r="A8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="16">
-        <v>3</v>
-      </c>
-      <c r="H8" s="18">
-        <v>50000</v>
-      </c>
-      <c r="I8" s="18">
-        <v>15</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" ht="63" customHeight="1" spans="1:14">
-      <c r="A9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17">
-        <f>SUM(I10:I11)</f>
-        <v>79</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="11"/>
-    </row>
-    <row r="10" ht="70" customHeight="1" spans="1:14">
-      <c r="A10" s="15">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="16">
-        <v>2</v>
-      </c>
-      <c r="H10" s="17">
-        <v>340000</v>
-      </c>
-      <c r="I10" s="24">
-        <v>34</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" ht="42" customHeight="1" spans="1:14">
-      <c r="A11" s="15">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="16">
-        <v>3</v>
-      </c>
-      <c r="H11" s="17">
-        <v>450000</v>
-      </c>
-      <c r="I11" s="24">
-        <v>45</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="11"/>
+      <c r="N10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
